--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Language</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Followup / Modify Date/Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,292 +466,14 @@
           <t>English</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Hindi</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Hindi</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-21 10:47:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pravin Pawar</t>
         </is>
       </c>
     </row>

--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lead Quality</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,11 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>Pravin Pawar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Paid</t>
         </is>
       </c>
     </row>

--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,10 +55,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,13 +434,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -439,51 +456,75 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Language</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Followup / Modify Date/Time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Lead Quality</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>2024-04-21 10:47:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Pravin Pawar</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Paid</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29/06/2024 11:09am - 14000 paid , 6000 pending
+29/06/2024 09:52am - 1600 pay
+24/06/2024 05:03pm - register with 1000, pending 19000
+24/06/2024 05:03pm - register with 1000
+13/06/2024 02:39pm - npu
+01/06/2024 02:32pm - call at 6 pm today
+21/05/2024 06:14pm - npu
+09/05/2024 05:36pm - npu
+09/05/2024 04:32pm - call at 5:30
+28/04/2024 06:26pm - npu
+28/04/2024 06:26pm - npu
+16/04/2024 11:27am - npu , call again
+13/04/2024 10:52am - 10 yrs exp. in pp call again on 21 april
+13/04/2024 10:47am - reference of omkar. had a discusion , he will enroll in month end of april.
+</t>
         </is>
       </c>
     </row>

--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Followup / Modify Date/Time</t>
+          <t>Followup/Modify Date/Time</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">

--- a/outputs/output.xlsx
+++ b/outputs/output.xlsx
@@ -58,16 +58,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,73 +442,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actions</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
           <t>Language</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Followup/Modify Date/Time</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lead Quality</t>
+        </is>
+      </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Lead Quality</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Original Date / Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pain Area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Add Pipeline, Potential IP Lead, call, Share Lead, Lead Details, Official Chat, Send Pay Fee Link, Send Mailer, Training Docs, Create Demo Request</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>2024-04-21 10:47:00</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Pravin Pawar</t>
         </is>
       </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">29/06/2024 11:09am - 14000 paid , 6000 pending
 29/06/2024 09:52am - 1600 pay
@@ -527,6 +540,1243 @@
 </t>
         </is>
       </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-13 10:46:06</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>UNALLOCATED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Bhavani</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Next Batch</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/07/2024 03:07pm - b.com , mba 1st year finance , she is planning after few months , details shared on mail she will revert if required
+19/07/2024 03:06pm - b.com , mba 1st year finance , she is planning after few months
+19/07/2024 03:00pm - b.com , mba 1st year finance ,
+19/07/2024 02:59pm - b.com , mba 1st year ,
+</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-17 20:24:06</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>ivy mandal</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/06/2024 11:04am - had a discussion , arranged a call back at 11:30 am today
+</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-28 11:01:58</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>(JIMS) SAP SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>swati</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/06/2024 04:45pm - suggested master program in hr generalist
+28/06/2024 04:44pm - had a discussion , refe of monty , details shared on whatsapp , call again by tommorow
+</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-28 15:58:39</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>(JIMS) SAP SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Call Again</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 02:34pm - busy on another call , call again , mail sent
+</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-20 14:00:54</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Mukesh</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Call Again</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 12:14pm - CALL AGAIN AT 2 PM
+</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-20 11:58:14</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Krishna</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/07/2024 02:38pm - fees given 27600 till 25th july he will check the details and revert , details shared on mail n whatsapp, call again by tommorow
+19/07/2024 02:22pm - fees given 27600 till 25th july he will check the details and revert
+19/07/2024 01:50pm - b.com , 3.6 yrs in finance and accounts , sales n operations , he want to start as soon as possible , details shared
+19/07/2024 01:24pm - b.com , 3.6 yrs in finance and accounts , sales n operations ,
+19/07/2024 01:24pm - b.com , 3.6 yrs in accounts ,
+19/07/2024 12:07pm - call again at 1 pm
+</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-19 09:42:51</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Zoe Shalom</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03/07/2024 04:36pm - he is planning to start after 2 months
+02/07/2024 02:54pm - npu
+29/06/2024 03:58pm - npu
+28/06/2024 06:22pm - npu
+28/06/2024 11:11am - out of network
+26/06/2024 02:40pm - b.com , fresher , he is from chennai , looking for job place,ments , details shared on whatsapp , had a discussion he was comfortable in tamil but he discuseed little rest he can talk on whtasapp
+26/06/2024 02:30pm - b.com , fresher ,
+25/06/2024 06:35pm - npu
+25/06/2024 05:53pm - npu , call again
+</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-23 14:36:45</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>UNALLOCATED</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>2023-12-11 12:14:00</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Shoyab Atif</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/07/2024 06:37pm - diploma in electronics , b.tech , details shared on whatsapp , he will check and call again on monday .
+16/07/2024 06:17pm - diploma in electronics , b.tech ,
+16/07/2024 01:24pm - call again at 5:30 pm today
+14/07/2024 12:26pm - call again after 1 pm
+13/07/2024 04:12pm - npu , busy, mail sent
+13/07/2024 04:08pm - npu , busy
+</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-13 14:36:33</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>UNALLOCATED</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Chandra Prakash</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 11:51am - call again at 6 pm
+20/07/2024 11:50am - he is looking for his wife , had a discussion , he also inquired in few more institutes , she will discuss with his wife and inform by day after tommorow .
+18/07/2024 05:20pm - he is looking for his wife , had a discussion , he also few more institutes , she will discuss with his wife and inform by day after tommorow .
+18/07/2024 04:56pm - he is looking for his wife ,
+18/07/2024 02:21pm - mail sent ., details shared on whatspp also
+18/07/2024 02:20pm - mail sent ., details shared on whatspp
+18/07/2024 02:17pm - npu
+17/07/2024 02:09pm - npu
+17/07/2024 12:22pm - b.com , fresher , asap , call again after 2 pm today
+17/07/2024 12:21pm - b.com , fresher , asap ,
+</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-17 11:08:01</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>chbhavesh19</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 02:39pm - npu
+16/07/2024 11:44am - npu
+09/07/2024 05:43pm - details shared on mail n whatspp
+09/07/2024 05:12pm - HE WANT TO GO FOR THE ONLY POST GRADUATE PROGRAM IN DATA SCIENCE , JOB GUARANTEE PROGRAM , HAD A DISCUSSION ,
+09/07/2024 11:28am - call again 4 pm today
+09/07/2024 11:27am - 4 yrs exp. in accounts , 1 yrs exp. in taxation , he want to go for the post graduate program in data science , job garantee , suggest to do accounting n taxation , call again at 4 pm today
+08/07/2024 05:42pm - npu
+08/07/2024 05:42pm - npu
+08/07/2024 11:45am - npu , call again
+</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-07 19:07:07</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Data Science Course</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-01 12:51:00</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Aditya Kumar Mishra</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/04/2024 12:51pm - HE IS NOT PLANNING FOR THE COURSE
+</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-10 21:35:06</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Not Interested</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Keshav Raj</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 01:01pm - demo shred
+20/07/2024 01:00pm - recorded demo shared
+20/07/2024 12:56pm - npu
+19/07/2024 01:19pm - details shared on whatsapp , his friend suggested , he will check the details and update by tommorow
+19/07/2024 12:46pm - b.com , computer operator in hindustan uniliver 2 yrs, 2 yrs on exp. on telly .
+19/07/2024 12:35pm - b.com , computer operator in hindustan uniliver 2 yrs, 2 yrs on exp. on telly .
+</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-18 21:43:05</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17/07/2024 02:32pm - ni , he is not looking any course and this is not his mail id
+</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-16 19:09:13</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>Not Interested</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Ambati</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Call Again</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 01:02pm - npu
+20/07/2024 11:02am - npu
+19/07/2024 06:20pm - busy , call again , mail sent
+</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-19 17:57:55</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Arathi Aagama Nattodil</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/07/2024 05:46pm - his husband is consultant in SAP-SCM, SHE is looking for his husband , details shared on mail n whatsapp fees given 34500 , she will check with his husband and inform
+19/07/2024 05:14pm - mba in logistics, 6 yrs exp. in supply chain n logistics ,
+</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-19 17:01:12</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Gayathri</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 11:08am - call again in today evening
+20/07/2024 11:08am - had a discussion , she want to start the class from august first week , ask for the registration with 3000 pending can be convert into EMIs. she will inform by today evening
+17/07/2024 03:15pm - sd ,mail sent
+17/07/2024 03:12pm - she is looking for sap sd first she wwant to go through the details n the she will update .
+16/07/2024 04:45pm - after opening , hung up the call , npu , m,ail sent
+</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-15 21:43:02</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>SAP-SD</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Preet Kaur</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 11:40am - details shared on wahtsapp , she will check and inform by today
+17/07/2024 03:28pm - BA, fresher , only aksed about fees n classes , and hung up mail sent
+16/07/2024 01:16pm - asked to call back after half n hour
+</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-15 15:26:36</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>dharmik patel</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Next Batch</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/07/2024 03:21pm - he will check i=n inform
+19/07/2024 03:21pm - 12th pass , mail sent ,
+19/07/2024 03:15pm - 12th pass ,
+17/07/2024 02:40pm - ni, hung up
+</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-15 18:11:25</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Kkanishka Jaswal</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Call Again</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20/07/2024 11:56am - NPU , BUSY
+17/07/2024 02:27pm - npu , call again ,mail sent
+</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-15 18:24:48</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>SAP-FICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>1970-01-01 05:30:00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Pooja Sharma</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/07/2024 11:13am - graduate , cma , 1 yrs training under CA , she want to enroll with the Spaanish language  course by tommorow or  by monday , details shared on whatsapp
+19/07/2024 10:47am - graduate , cma , 1 yrs training under CA ,
+17/07/2024 06:08pm - hung up
+17/07/2024 11:42am - npu , call again
+</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:42:50</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>Spanish-A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-13 18:10:00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Sowbarnika.V</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/06/2024 03:35pm - 56000 fees , registeration done with 3000 pending 53000 she will pay with credit card 53000 on monday
+27/06/2024 06:47pm - she will pay for sap mm n fico combo even also for lean six sigma green belt and black belt , firstly pay for sap . by tommorow
+27/06/2024 12:28pm - sap mm n fico combo modules shared details o whatspp fees 31500 given , call again in afternoon
+</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>2024-06-25 12:56:11</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>UNALLOCATED</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-12 16:43:00</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>lavleen</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Lead Revived</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14/05/2024 07:57pm - got job
+12/03/2024 05:39pm - sap fico, 34.5k, he has also enquired with other institutes, does not want any placement, just the cert
+12/03/2024 05:37pm - sap fico, 34.5k,
+12/03/2024 04:42pm - cAll NOT Picked
+</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-12 16:22:18</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>CE-WC</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>2023-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Warm</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13/07/2024 05:41pm - npu
+12/07/2024 05:40pm - mba in HR IN JUNE, details shared on mail n whatsapp about hr generalist job gaurantee hr business partner and amazon seller course , she will discuss with his friend n inform , which one she want to enroll
+12/07/2024 05:28pm - mba in HR IN JUNE, details shared on mail n whatsapp
+12/07/2024 04:44pm - mba in HR IN JUNE
+12/07/2024 02:15pm - npu , call again
+14/02/2024 01:04pm - client didnt responded my call so i have shared all details in mail and whatsapp
+npu
+04/09/2023 12:12pm - client didnt responded my call so i have shared all details in mail and whatsapp
+</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>2023-09-04 11:43:42</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Need Followup</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>UNALLOCATED</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08 19:15:00</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Kunal Subarno</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Next Batch</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05/07/2024 03:06pm - not right now , plan dropped
+08/05/2024 07:15pm - call not picked
+</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Pending Amount: 0</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:42:38</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Next Month</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>UNALLOCATED</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
